--- a/data/week3xsl.xlsx
+++ b/data/week3xsl.xlsx
@@ -931,7 +931,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,289 +970,325 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C18" si="0">1200+SUM(D2:G2)</f>
-        <v>4200</v>
+        <f>1200+SUM(D2:G2)</f>
+        <v>6000</v>
       </c>
       <c r="D2">
-        <v>900</v>
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
       </c>
       <c r="F2">
-        <v>2100</v>
+        <v>800</v>
+      </c>
+      <c r="G2">
+        <v>3000</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H18" si="1">2*SUMIF(D2:G2,"&gt;0")</f>
-        <v>6000</v>
+        <f>2*SUMIF(D2:G2,"&gt;0")</f>
+        <v>9600</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+        <f>1200+SUM(D3:G3)</f>
+        <v>4000</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>-300</v>
       </c>
       <c r="F3">
-        <v>800</v>
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>2000</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
-        <v>3600</v>
+        <f>2*SUMIF(D3:G3,"&gt;0")</f>
+        <v>6200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+        <f>1200+SUM(D4:G4)</f>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>900</v>
       </c>
-      <c r="E4">
-        <v>-600</v>
-      </c>
       <c r="F4">
-        <v>300</v>
+        <v>2100</v>
+      </c>
+      <c r="G4">
+        <v>-4200</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>2400</v>
+        <f>2*SUMIF(D4:G4,"&gt;0")</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+        <f>1200+SUM(D5:G5)</f>
+        <v>3600</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E5">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <v>1800</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>2200</v>
+        <f>2*SUMIF(D5:G5,"&gt;0")</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1200</v>
+        <f>1200+SUM(D6:G6)</f>
+        <v>3000</v>
       </c>
       <c r="D6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>-900</v>
+        <v>-500</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <v>1500</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>1800</v>
+        <f>2*SUMIF(D6:G6,"&gt;0")</f>
+        <v>4600</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f>1200+SUM(D7:G7)</f>
+        <v>3000</v>
       </c>
       <c r="D7">
         <v>300</v>
       </c>
       <c r="E7">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>1600</v>
+        <f>2*SUMIF(D7:G7,"&gt;0")</f>
+        <v>4200</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>1200+SUM(D8:G8)</f>
         <v>2000</v>
       </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
       <c r="E8">
-        <v>300</v>
+        <v>-400</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>-400</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>1600</v>
+        <f>2*SUMIF(D8:G8,"&gt;0")</f>
+        <v>3200</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f>1200+SUM(D9:G9)</f>
+        <v>2400</v>
       </c>
       <c r="D9">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-400</v>
+        <v>300</v>
       </c>
       <c r="F9">
-        <v>-400</v>
+        <v>-300</v>
+      </c>
+      <c r="G9">
+        <v>1200</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <f>2*SUMIF(D9:G9,"&gt;0")</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <f>1200+SUM(D10:G10)</f>
+        <v>2400</v>
       </c>
       <c r="D10">
-        <v>300</v>
-      </c>
-      <c r="E10">
         <v>-300</v>
       </c>
       <c r="F10">
         <v>300</v>
       </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <f>2*SUMIF(D10:G10,"&gt;0")</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1200</v>
+        <f>1200+SUM(D11:G11)</f>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>-300</v>
+        <v>-900</v>
+      </c>
+      <c r="G11">
+        <v>-1200</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <f>2*SUMIF(D11:G11,"&gt;0")</f>
+        <v>1800</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="D12">
-        <v>-300</v>
+        <f>1200+SUM(D12:G12)</f>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="F12">
-        <v>300</v>
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>-2000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <f>2*SUMIF(D12:G12,"&gt;0")</f>
+        <v>1600</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1200</v>
+        <f>1200+SUM(D13:G13)</f>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>-300</v>
       </c>
+      <c r="E13">
+        <v>-300</v>
+      </c>
       <c r="F13">
         <v>300</v>
       </c>
+      <c r="G13">
+        <v>-900</v>
+      </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f>2*SUMIF(D13:G13,"&gt;0")</f>
         <v>600</v>
       </c>
     </row>
@@ -1264,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>1200+SUM(D14:G14)</f>
         <v>0</v>
       </c>
       <c r="D14">
@@ -1274,7 +1310,7 @@
         <v>-1200</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f>2*SUMIF(D14:G14,"&gt;0")</f>
         <v>0</v>
       </c>
     </row>
@@ -1286,11 +1322,11 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>1200+SUM(D15:G15)</f>
         <v>1200</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f>2*SUMIF(D15:G15,"&gt;0")</f>
         <v>0</v>
       </c>
     </row>
@@ -1302,8 +1338,8 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>1200+SUM(D16:G16)</f>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>-300</v>
@@ -1314,8 +1350,11 @@
       <c r="F16">
         <v>-300</v>
       </c>
+      <c r="G16">
+        <v>-300</v>
+      </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f>2*SUMIF(D16:G16,"&gt;0")</f>
         <v>0</v>
       </c>
     </row>
@@ -1327,11 +1366,14 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1200</v>
+        <f>1200+SUM(D17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-1200</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f>2*SUMIF(D17:G17,"&gt;0")</f>
         <v>0</v>
       </c>
     </row>
@@ -1343,15 +1385,18 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>1200+SUM(D18:G18)</f>
         <v>1200</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f>2*SUMIF(D18:G18,"&gt;0")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H18">
+    <sortCondition descending="1" ref="H2:H18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>